--- a/config/forms/contact/outbreak_location-edit.xlsx
+++ b/config/forms/contact/outbreak_location-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A726B5D8-C889-4A66-96E2-66351EB8774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39335EA-7CD1-496E-BEAF-E681BA379550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7768" uniqueCount="1965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7773" uniqueCount="1966">
   <si>
     <t>type</t>
   </si>
@@ -5933,6 +5933,9 @@
   </si>
   <si>
     <t>Disease name</t>
+  </si>
+  <si>
+    <t>../../outbreak_location/outbreak/disease_name</t>
   </si>
 </sst>
 </file>
@@ -6311,14 +6314,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF964"/>
+  <dimension ref="A1:AF965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6743,47 +6746,53 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:32" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+    <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:11" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>1941</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>1944</v>
-      </c>
-      <c r="G17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G18" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>1945</v>
+      <c r="J18" s="15" t="s">
+        <v>1955</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6791,43 +6800,43 @@
         <v>27</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1946</v>
+        <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>1962</v>
+      <c r="B20" s="11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>1964</v>
+      <c r="B21" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>1950</v>
+      <c r="B22" s="17" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6835,69 +6844,63 @@
         <v>27</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>54</v>
+      <c r="B24" s="11" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:11" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -6905,34 +6908,40 @@
       <c r="F29" t="s">
         <v>58</v>
       </c>
-      <c r="K29" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6940,10 +6949,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6951,15 +6960,21 @@
         <v>28</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J35" s="13" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6967,7 +6982,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7895,6 +7914,7 @@
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -36675,7 +36695,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-22 11-08</v>
+        <v>2024-01-26 15-54</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>

--- a/config/forms/contact/outbreak_location-edit.xlsx
+++ b/config/forms/contact/outbreak_location-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39335EA-7CD1-496E-BEAF-E681BA379550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D52C46A-EAF8-4C27-8E2D-E30C9AA212FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7773" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="1969">
   <si>
     <t>type</t>
   </si>
@@ -5911,9 +5911,6 @@
     <t>Sub-county</t>
   </si>
   <si>
-    <t>concat(${ol_county}, ' &gt; ', ${ol_subcounty})</t>
-  </si>
-  <si>
     <t>outbreak_name</t>
   </si>
   <si>
@@ -5936,6 +5933,18 @@
   </si>
   <si>
     <t>../../outbreak_location/outbreak/disease_name</t>
+  </si>
+  <si>
+    <t>concat(${ol_name}, ' ')</t>
+  </si>
+  <si>
+    <t>ol_name</t>
+  </si>
+  <si>
+    <t>../outbreak/subcounty</t>
+  </si>
+  <si>
+    <t>../outbreak/county</t>
   </si>
 </sst>
 </file>
@@ -6314,14 +6323,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF965"/>
+  <dimension ref="A1:AF966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6722,11 +6731,11 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
+      <c r="I13" t="s">
+        <v>1958</v>
       </c>
       <c r="J13" t="s">
-        <v>1957</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6734,16 +6743,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J14" t="s">
         <v>1959</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6751,16 +6760,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="J15" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -6822,10 +6831,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>1961</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6833,10 +6842,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>1963</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6894,13 +6903,13 @@
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>1952</v>
+        <v>1966</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>1945</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -6908,51 +6917,60 @@
       <c r="F29" t="s">
         <v>58</v>
       </c>
+      <c r="J29" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="K30" t="s">
+      <c r="J30" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1967</v>
+      </c>
+      <c r="K31" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6960,10 +6978,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6971,15 +6989,21 @@
         <v>28</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J36" s="13" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6987,7 +7011,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7915,6 +7943,7 @@
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -36695,7 +36724,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-26 15-54</v>
+        <v>2024-01-29 8-47</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
